--- a/laliga_player_stats_19_20.xlsx
+++ b/laliga_player_stats_19_20.xlsx
@@ -12622,7 +12622,7 @@
         <v>1.0</v>
       </c>
       <c r="N243" s="1">
-        <v>46023.0</v>
+        <v>4602.0</v>
       </c>
     </row>
     <row r="244">
@@ -15526,7 +15526,7 @@
         <v>1.0</v>
       </c>
       <c r="N309" s="1">
-        <v>46357.0</v>
+        <v>4635.0</v>
       </c>
     </row>
     <row r="310">
@@ -19002,7 +19002,7 @@
         <v>1.0</v>
       </c>
       <c r="N388" s="1">
-        <v>46054.0</v>
+        <v>4605.0</v>
       </c>
     </row>
     <row r="389">
@@ -19970,7 +19970,7 @@
         <v>0.0</v>
       </c>
       <c r="N410" s="1">
-        <v>46023.0</v>
+        <v>4602.0</v>
       </c>
     </row>
     <row r="411">
@@ -23358,7 +23358,7 @@
         <v>0.0</v>
       </c>
       <c r="N487" s="1">
-        <v>46204.0</v>
+        <v>4620.0</v>
       </c>
     </row>
     <row r="488">
